--- a/kw/data/keywords.xlsx
+++ b/kw/data/keywords.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxxx\VSprojects\bots\MIPT_UIT\kw\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6845E042-1934-4AEC-A01E-0717B6D10E97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21600" windowHeight="10222"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="243">
   <si>
     <t>name</t>
   </si>
@@ -40,9 +34,21 @@
     <t>emoji</t>
   </si>
   <si>
+    <t>Телефонный справочник</t>
+  </si>
+  <si>
+    <t>Телефон, Справочник, телефонный справочник, городской номер, номер</t>
+  </si>
+  <si>
+    <t>:telephone_receiver:</t>
+  </si>
+  <si>
     <t>Ноутбук во временное пользование</t>
   </si>
   <si>
+    <t>Ноутбук, СЗ, Служебная записка, Служебка</t>
+  </si>
+  <si>
     <t>:laptop:</t>
   </si>
   <si>
@@ -58,24 +64,36 @@
     <t>Поддержка рабочих мест, настройка удаленки</t>
   </si>
   <si>
+    <t>Компьютер, ПК, сканер, принтер, МФУ, телефон, трубка, аппарат, мышь, клавиатура, системный блок, Сетевые папки, сетевая папка, сетевой диск, Удаленный доступ, удаленка, редмайн, redmine, не работает, не включается, завис, шумит, гудит,логин,  забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, зажевал, жует, сжевал, сетевой диск, система, застрял, застряло, застряла, энидеск, юнидеск, анидеск, anydesk, rds</t>
+  </si>
+  <si>
     <t>:gear:</t>
   </si>
   <si>
     <t>ИС УОП, 1С:БГУ 2.0, 1С:ЗКГУ 3.0, 1С:ФПЗ</t>
   </si>
   <si>
+    <t>1С, БГУ, ФПЗ, УОП, ЗКГУ, ЗКБУ, Сервер, удаленный доступ, удаленка, 1С, БГУ, ФПЗ, ДО, Документооборот, Охрана труда, пароль, ФЛС, Трудоустройство, Договор, счет, служебка, служебная записка, логин, ошибка, ЭЦП, инструкции, не работает не включается, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, браузер, УОП, делегирование, система, заявка, заявка 1С, заявка 1C</t>
+  </si>
+  <si>
     <t>:man_pouting_light_skin_tone:</t>
   </si>
   <si>
     <t>1С: Документооборот</t>
   </si>
   <si>
+    <t>1С, Документооборот, ДО, заявка, заявка 1С, заявка 1C</t>
+  </si>
+  <si>
     <t>:card_file_box:</t>
   </si>
   <si>
     <t>Отчет в ИС УОП на основе сведений из СКУД</t>
   </si>
   <si>
+    <t>1С, Скуд, ЭКД, УОП, учебный процесс, заявка</t>
+  </si>
+  <si>
     <t>:ledger:</t>
   </si>
   <si>
@@ -97,6 +115,9 @@
     <t>Инструкции 1С</t>
   </si>
   <si>
+    <t>1С, БГУ, ФПЗ, ЗКГУ, ЗКБУ, Документооборот, Инструкции, УОП, ДО, мануал</t>
+  </si>
+  <si>
     <t>:orange_book:</t>
   </si>
   <si>
@@ -151,42 +172,63 @@
     <t>Сервис рассылок в Личном кабинете</t>
   </si>
   <si>
+    <t>Рассылки, лк</t>
+  </si>
+  <si>
+    <t>Группы рассылки в домене @mipt.ru</t>
+  </si>
+  <si>
     <t>Рассылки</t>
   </si>
   <si>
-    <t>Группы рассылки в домене @mipt.ru</t>
-  </si>
-  <si>
     <t>Массовые рассылки на внешние адреса</t>
   </si>
   <si>
     <t xml:space="preserve">Личный кабинет </t>
   </si>
   <si>
+    <t>Личный кабинет, Выпускники, рассылки, аккаунт, сайт, справка, оплата, оплата общежития, лк</t>
+  </si>
+  <si>
     <t>Доступ к данным ФЛС</t>
   </si>
   <si>
+    <t>Личный кабинет, ФЛС, СЗ, Служебная записка, Служебка</t>
+  </si>
+  <si>
     <t>:dollar_banknote:</t>
   </si>
   <si>
     <t>Заказ 2-НДФЛ</t>
   </si>
   <si>
+    <t>Личный кабинет, 2-НДФЛ, НДФЛ</t>
+  </si>
+  <si>
     <t>:page_facing_up:</t>
   </si>
   <si>
     <t>Мое подразделение</t>
   </si>
   <si>
+    <t>Личный кабинет, штатное расписание, ЛК</t>
+  </si>
+  <si>
     <t>:office_building:</t>
   </si>
   <si>
     <t xml:space="preserve">Управление курсами МФТИ </t>
   </si>
   <si>
+    <t>Личный кабинет, LMS, ЛК, ЛМС</t>
+  </si>
+  <si>
     <t>Сервис рассылок</t>
   </si>
   <si>
+    <t>Личный кабинет, Рассылки, ЛК</t>
+  </si>
+  <si>
     <t>Беспроводное подключение (WiFi)</t>
   </si>
   <si>
@@ -244,425 +286,843 @@
     <t>Подключение городского телефонного номера</t>
   </si>
   <si>
+    <t>Телефон, городской телефон</t>
+  </si>
+  <si>
+    <t>Изменение номера в телефонном справочнике на сайте</t>
+  </si>
+  <si>
+    <t>Телефон, Справочник, телефонный справочник</t>
+  </si>
+  <si>
+    <t>Трудоустройство в МФТИ</t>
+  </si>
+  <si>
+    <t>Трудоустройство, Вакансии</t>
+  </si>
+  <si>
+    <t>:bellhop_bell:</t>
+  </si>
+  <si>
+    <t>Впервые в МФТИ</t>
+  </si>
+  <si>
+    <t>Документы, впервые в МФТИ</t>
+  </si>
+  <si>
+    <t>:red_exclamation_mark:</t>
+  </si>
+  <si>
+    <t>Вакансии МФТИ</t>
+  </si>
+  <si>
+    <t>Выпускники, Трудоустройство, Вакансии hr, hr-портал</t>
+  </si>
+  <si>
+    <t>Схема участия в конкурсе ППС</t>
+  </si>
+  <si>
+    <t>Трудоустройство, Вакансии, Конкурс ППС</t>
+  </si>
+  <si>
+    <t>:memo:</t>
+  </si>
+  <si>
+    <t>Контакты Управления по работе с персоналом</t>
+  </si>
+  <si>
+    <t>Трудоустройство, Вакансии, Конкурс ППС, контакты</t>
+  </si>
+  <si>
+    <t>:receipt:</t>
+  </si>
+  <si>
+    <t>HR-портал МФТИ</t>
+  </si>
+  <si>
+    <t>hr, hr портал</t>
+  </si>
+  <si>
+    <t>:bell:</t>
+  </si>
+  <si>
+    <t>Обучение в сервисе Яндекс Телемост</t>
+  </si>
+  <si>
+    <t>Телемост, Яндекс телемост</t>
+  </si>
+  <si>
+    <t>:open_book:</t>
+  </si>
+  <si>
+    <t>Доступ к сервису проверки текста mipt.antiplagiat.ru</t>
+  </si>
+  <si>
+    <t>Антиплагиат</t>
+  </si>
+  <si>
+    <t>Система обращений Redmine</t>
+  </si>
+  <si>
+    <t>редмайн, redmine, поставить задачу</t>
+  </si>
+  <si>
+    <t>:red_circle:</t>
+  </si>
+  <si>
+    <t>Инструкции для сотрудников</t>
+  </si>
+  <si>
+    <t>Инструкции, мануал</t>
+  </si>
+  <si>
+    <t>Документы по ИТ МФТИ</t>
+  </si>
+  <si>
+    <t>Документы</t>
+  </si>
+  <si>
+    <t>Виртуальный сервер</t>
+  </si>
+  <si>
+    <t>Сервер, сервера, серверы, виртуалка, сайт, Продление инета, продление интернета, продлить инет, продлить интернет</t>
+  </si>
+  <si>
+    <t>Физическое размещение оборудования</t>
+  </si>
+  <si>
+    <t>Сервер, сервера, серверы, виртуалка, Продление инета, продление интернета, продлить инет, продлить интернет</t>
+  </si>
+  <si>
+    <t>Переадресация запросов с доменного имени *.mipt.ru</t>
+  </si>
+  <si>
+    <t>сайт, Домен</t>
+  </si>
+  <si>
+    <t>:left_arrow_curving_right:</t>
+  </si>
+  <si>
+    <t>Вычислительные ресурсы ЦОД</t>
+  </si>
+  <si>
+    <t>Вычислительные ресурсы ЦОД для участников «Физтех.Идея»</t>
+  </si>
+  <si>
+    <t>Сервер, сервера, серверы, виртуалка</t>
+  </si>
+  <si>
+    <t>Техподдержка центра обработки данных (ЦОД)</t>
+  </si>
+  <si>
+    <t>:man_technologist_medium_skin_tone:</t>
+  </si>
+  <si>
+    <t>Регистрация домена 3-го уровня в зоне mipt.ru</t>
+  </si>
+  <si>
+    <t>:clipboard:</t>
+  </si>
+  <si>
+    <t>Подключение онлайн-платежей</t>
+  </si>
+  <si>
+    <t>онлайн платежи, платежи</t>
+  </si>
+  <si>
+    <t>:credit_card:</t>
+  </si>
+  <si>
+    <t>Проекционное оборудование</t>
+  </si>
+  <si>
+    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, презентации, презентационное оборудование, трибуна лектора, трибуна, электронная доска, интерактивная доска, презентационное оборудование, стилус</t>
+  </si>
+  <si>
+    <t>:movie_camera:</t>
+  </si>
+  <si>
+    <t>Мультимедийная трибуна лектора</t>
+  </si>
+  <si>
+    <t>Интерактивные панели</t>
+  </si>
+  <si>
+    <t>Подключение аудиторий, аудитории,Проектор, пульт, батарейки, электронная доска, интерактивная доска, стилус</t>
+  </si>
+  <si>
+    <t>:desktop_computer:</t>
+  </si>
+  <si>
+    <t>Электронное голосование</t>
+  </si>
+  <si>
+    <t>Подключение аудиторий, аудитории,Проектор, пульт, батарейки</t>
+  </si>
+  <si>
+    <t>Презентационное оборудование в аудитории 326ГК</t>
+  </si>
+  <si>
+    <t>Подключение аудиторий, аудитории,Проектор, пульт, батарейки, презентации, презентационное оборудование</t>
+  </si>
+  <si>
+    <t>:clapper_board:</t>
+  </si>
+  <si>
+    <t>Мобильное презентационное оборудование</t>
+  </si>
+  <si>
+    <t>:mobile_phone:</t>
+  </si>
+  <si>
+    <t>Система видеоконференций в аудитории 310УЛК2</t>
+  </si>
+  <si>
+    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, Видеоконференции, ВКС</t>
+  </si>
+  <si>
+    <t>:video_camera:</t>
+  </si>
+  <si>
+    <t>ТП аудиторий с проекционным и звуковым оборудованием</t>
+  </si>
+  <si>
+    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, трибуна лектора, трибуна, презентации, презентационное оборудование, Видеоконференции</t>
+  </si>
+  <si>
+    <t>:studio_microphone:</t>
+  </si>
+  <si>
+    <t>Пропуск для обучающихся и штатных сотрудников</t>
+  </si>
+  <si>
+    <t>пропуск, ЭКД, выпускники, СКУД, общежитие, проход</t>
+  </si>
+  <si>
+    <t>:key:</t>
+  </si>
+  <si>
+    <t>Временный пропуск</t>
+  </si>
+  <si>
+    <t>пропуск, ЭКД, выпускники, СКУД, общежитие, временный проход</t>
+  </si>
+  <si>
+    <t>:old_key:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Правила прохода в корпуса и общежития </t>
+  </si>
+  <si>
+    <t>СКУД, Пропуск, Общежитие, ЭКД, проход</t>
+  </si>
+  <si>
+    <t>:notebook:</t>
+  </si>
+  <si>
+    <t>Пропуск для выпускников</t>
+  </si>
+  <si>
+    <t>пропуск, ЭКД, СКУД, общежитие, проход</t>
+  </si>
+  <si>
+    <t>:ticket:</t>
+  </si>
+  <si>
+    <t>Выдача дубликата пропуска</t>
+  </si>
+  <si>
+    <t>дубликат пропуска, дубликат, пропуск, ЭКД, СКУД, общежитие, проход</t>
+  </si>
+  <si>
+    <t>Предоставление доступа к ЭДО "Контур.Диадок"</t>
+  </si>
+  <si>
+    <t>Контур, Контур.Диадок, Диадок, СЗ, Служебная записка, Служебка</t>
+  </si>
+  <si>
+    <t>:page_with_curl:</t>
+  </si>
+  <si>
+    <t>Рабочее место</t>
+  </si>
+  <si>
+    <t>Компьютер, ПК, сканер, принтер, МФУ, телефон, трубка, аппарат, мышь, клавиатура, системный блок, Сетевые папки, сетевая папка, сетевой диск, Удаленный доступ, удаленка, редмайн, redmine, не работает, не включается, завис, шумит, гудит,логин,  забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, зажевал, жует, сжевал, сетевой диск, системазастрял, застряло, застряла</t>
+  </si>
+  <si>
+    <t>1С (УОП, БГУ, ЗКГУ, ФПЗ, ДО, Охрана труда)</t>
+  </si>
+  <si>
+    <t>Сервер, удаленный доступ, удаленка, 1С, БГУ, ФПЗ, ДО, Документооборот, Охрана труда, пароль, ФЛС, Трудоустройство, Договор, счет, служебка, служебная записка, логин, ошибка, ЭЦП, инструкции, не работает не включается, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, браузер, УОП, делегирование, система, СЗ</t>
+  </si>
+  <si>
+    <t>Корп.аккаунт/почта/рассылки</t>
+  </si>
+  <si>
+    <t>Получение почты, почта, Почта физтех, почта phystech, phystech.edu, выпускники, рассылки, Корпаккаунт, аккаунт, корпоративный аккаунт, пароль, аутлук, outlook, zimbra, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, служебка, служебная записка</t>
+  </si>
+  <si>
+    <t>Личный кабинет</t>
+  </si>
+  <si>
+    <t>Выпускники, рассылки, аккаунт, ФЛС, штатное расписание, завкафедры, завкафедрой, LMS, сайт, справка, оплата, оплата общежития, ЛК</t>
+  </si>
+  <si>
+    <t>Доступ в Интернет, телефон</t>
+  </si>
+  <si>
+    <t>Подключение интернета, Доступ в интернет,Интернет, телефон</t>
+  </si>
+  <si>
+    <t>Сервера и виртуалки</t>
+  </si>
+  <si>
+    <t>Сервер, виртуалка, Продление инета, продление интернета, продлить инет, продлить интернет</t>
+  </si>
+  <si>
+    <t>Онлайн-оплата</t>
+  </si>
+  <si>
+    <t>Аудитории с проекционным и звуковым оборудованием</t>
+  </si>
+  <si>
+    <t>Проектор, пульт, батарейки, трибуна лектора, трибуна, презентации, презентационное оборудование, электронная доска, интерактивная доска, стилус</t>
+  </si>
+  <si>
+    <t>Пропуск (ЭКД)</t>
+  </si>
+  <si>
+    <t>дубликат пропуска, дубликат, пропуск, ЭКД, выпускники, СКУД, общежитие</t>
+  </si>
+  <si>
+    <t>Корпоративный аккаунт</t>
+  </si>
+  <si>
+    <t>Корпаккаунт, аккаунт, корпоративный аккаунт, пароль, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>Получение почты, почта, Почта физтех, почта phystech, phystech.edu, выпускники, рассылки, пароль, аутлук, outlook, zimbra, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль</t>
+  </si>
+  <si>
+    <t>Сервисы рассылок</t>
+  </si>
+  <si>
+    <t>рассылки</t>
+  </si>
+  <si>
+    <t>Доступ в Интернет</t>
+  </si>
+  <si>
     <t>Телефон</t>
   </si>
   <si>
-    <t>:telephone_receiver:</t>
-  </si>
-  <si>
-    <t>Изменение номера в телефонном справочнике на сайте</t>
-  </si>
-  <si>
-    <t>Телефон, Справочник, телефонный справочник</t>
-  </si>
-  <si>
-    <t>Трудоустройство в МФТИ</t>
-  </si>
-  <si>
-    <t>Трудоустройство, Вакансии</t>
-  </si>
-  <si>
-    <t>:bellhop_bell:</t>
-  </si>
-  <si>
-    <t>Впервые в МФТИ</t>
-  </si>
-  <si>
-    <t>Документы, впервые в МФТИ</t>
-  </si>
-  <si>
-    <t>:red_exclamation_mark:</t>
-  </si>
-  <si>
-    <t>Вакансии МФТИ</t>
-  </si>
-  <si>
-    <t>Выпускники, Трудоустройство, Вакансии hr, hr-портал</t>
-  </si>
-  <si>
-    <t>Схема участия в конкурсе ППС</t>
-  </si>
-  <si>
-    <t>Трудоустройство, Вакансии, Конкурс ППС</t>
-  </si>
-  <si>
-    <t>:memo:</t>
-  </si>
-  <si>
-    <t>Контакты Управления по работе с персоналом</t>
-  </si>
-  <si>
-    <t>Трудоустройство, Вакансии, Конкурс ППС, контакты</t>
-  </si>
-  <si>
-    <t>:receipt:</t>
-  </si>
-  <si>
-    <t>HR-портал МФТИ</t>
-  </si>
-  <si>
-    <t>hr, hr портал</t>
-  </si>
-  <si>
-    <t>:bell:</t>
-  </si>
-  <si>
-    <t>Обучение в сервисе Яндекс Телемост</t>
-  </si>
-  <si>
-    <t>Телемост, Яндекс телемост</t>
-  </si>
-  <si>
-    <t>:open_book:</t>
-  </si>
-  <si>
-    <t>Доступ к сервису проверки текста mipt.antiplagiat.ru</t>
-  </si>
-  <si>
-    <t>Антиплагиат</t>
-  </si>
-  <si>
-    <t>Система обращений Redmine</t>
-  </si>
-  <si>
-    <t>:red_circle:</t>
-  </si>
-  <si>
-    <t>Инструкции для сотрудников</t>
-  </si>
-  <si>
-    <t>Документы по ИТ МФТИ</t>
-  </si>
-  <si>
-    <t>Документы</t>
-  </si>
-  <si>
-    <t>Виртуальный сервер</t>
-  </si>
-  <si>
-    <t>Сервер, сервера, серверы, виртуалка, сайт, Продление инета, продление интернета, продлить инет, продлить интернет</t>
-  </si>
-  <si>
-    <t>Физическое размещение оборудования</t>
-  </si>
-  <si>
-    <t>Сервер, сервера, серверы, виртуалка, Продление инета, продление интернета, продлить инет, продлить интернет</t>
-  </si>
-  <si>
-    <t>Переадресация запросов с доменного имени *.mipt.ru</t>
-  </si>
-  <si>
-    <t>сайт, Домен</t>
-  </si>
-  <si>
-    <t>:left_arrow_curving_right:</t>
-  </si>
-  <si>
-    <t>Вычислительные ресурсы ЦОД</t>
-  </si>
-  <si>
-    <t>Вычислительные ресурсы ЦОД для участников «Физтех.Идея»</t>
-  </si>
-  <si>
-    <t>Сервер, сервера, серверы, виртуалка</t>
-  </si>
-  <si>
-    <t>Техподдержка центра обработки данных (ЦОД)</t>
-  </si>
-  <si>
-    <t>:man_technologist_medium_skin_tone:</t>
-  </si>
-  <si>
-    <t>Регистрация домена 3-го уровня в зоне mipt.ru</t>
-  </si>
-  <si>
-    <t>:clipboard:</t>
-  </si>
-  <si>
-    <t>Подключение онлайн-платежей</t>
-  </si>
-  <si>
-    <t>онлайн платежи, платежи</t>
-  </si>
-  <si>
-    <t>:credit_card:</t>
-  </si>
-  <si>
-    <t>Проекционное оборудование</t>
-  </si>
-  <si>
-    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, презентации, презентационное оборудование, трибуна лектора, трибуна, электронная доска, интерактивная доска, презентационное оборудование, стилус</t>
-  </si>
-  <si>
-    <t>:movie_camera:</t>
-  </si>
-  <si>
-    <t>Мультимедийная трибуна лектора</t>
-  </si>
-  <si>
-    <t>Интерактивные панели</t>
-  </si>
-  <si>
-    <t>Подключение аудиторий, аудитории,Проектор, пульт, батарейки, электронная доска, интерактивная доска, стилус</t>
-  </si>
-  <si>
-    <t>:desktop_computer:</t>
-  </si>
-  <si>
-    <t>Электронное голосование</t>
-  </si>
-  <si>
-    <t>Подключение аудиторий, аудитории,Проектор, пульт, батарейки</t>
-  </si>
-  <si>
-    <t>Презентационное оборудование в аудитории 326ГК</t>
-  </si>
-  <si>
-    <t>Подключение аудиторий, аудитории,Проектор, пульт, батарейки, презентации, презентационное оборудование</t>
-  </si>
-  <si>
-    <t>:clapper_board:</t>
-  </si>
-  <si>
-    <t>Мобильное презентационное оборудование</t>
-  </si>
-  <si>
-    <t>:mobile_phone:</t>
-  </si>
-  <si>
-    <t>Система видеоконференций в аудитории 310УЛК2</t>
-  </si>
-  <si>
-    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, Видеоконференции, ВКС</t>
-  </si>
-  <si>
-    <t>:video_camera:</t>
-  </si>
-  <si>
-    <t>ТП аудиторий с проекционным и звуковым оборудованием</t>
-  </si>
-  <si>
-    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, трибуна лектора, трибуна, презентации, презентационное оборудование, Видеоконференции</t>
-  </si>
-  <si>
-    <t>:studio_microphone:</t>
-  </si>
-  <si>
-    <t>Пропуск для обучающихся и штатных сотрудников</t>
-  </si>
-  <si>
-    <t>:key:</t>
-  </si>
-  <si>
-    <t>Временный пропуск</t>
-  </si>
-  <si>
-    <t>:old_key:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Правила прохода в корпуса и общежития </t>
-  </si>
-  <si>
-    <t>:notebook:</t>
-  </si>
-  <si>
-    <t>Пропуск для выпускников</t>
-  </si>
-  <si>
-    <t>:ticket:</t>
-  </si>
-  <si>
-    <t>Выдача дубликата пропуска</t>
-  </si>
-  <si>
-    <t>Телефонный справочник</t>
-  </si>
-  <si>
-    <t>Телефон, Справочник, телефонный справочник, городской номер, номер</t>
-  </si>
-  <si>
-    <t>Ноутбук, СЗ, Служебная записка, Служебка</t>
-  </si>
-  <si>
-    <t>Компьютер, ПК, сканер, принтер, МФУ, телефон, трубка, аппарат, мышь, клавиатура, системный блок, Сетевые папки, сетевая папка, сетевой диск, Удаленный доступ, удаленка, редмайн, redmine, не работает, не включается, завис, шумит, гудит,логин,  забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, зажевал, жует, сжевал, сетевой диск, система, застрял, застряло, застряла, энидеск, юнидеск, анидеск, anydesk, rds</t>
-  </si>
-  <si>
-    <t>1С, БГУ, ФПЗ, УОП, ЗКГУ, ЗКБУ, Сервер, удаленный доступ, удаленка, 1С, БГУ, ФПЗ, ДО, Документооборот, Охрана труда, пароль, ФЛС, Трудоустройство, Договор, счет, служебка, служебная записка, логин, ошибка, ЭЦП, инструкции, не работает не включается, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, браузер, УОП, делегирование, система, заявка, заявка 1С, заявка 1C</t>
-  </si>
-  <si>
-    <t>1С, Документооборот, ДО, заявка, заявка 1С, заявка 1C</t>
-  </si>
-  <si>
-    <t>1С, Скуд, ЭКД, УОП, учебный процесс, заявка</t>
-  </si>
-  <si>
-    <t>1С, БГУ, ФПЗ, ЗКГУ, ЗКБУ, Документооборот, Инструкции, УОП, ДО, мануал</t>
-  </si>
-  <si>
-    <t>Рассылки, лк</t>
-  </si>
-  <si>
-    <t>Личный кабинет, Выпускники, рассылки, аккаунт, сайт, справка, оплата, оплата общежития, лк</t>
-  </si>
-  <si>
-    <t>Личный кабинет, ФЛС, СЗ, Служебная записка, Служебка</t>
-  </si>
-  <si>
-    <t>Личный кабинет, 2-НДФЛ, НДФЛ</t>
-  </si>
-  <si>
-    <t>Личный кабинет, штатное расписание, ЛК</t>
-  </si>
-  <si>
-    <t>Личный кабинет, Рассылки, ЛК</t>
-  </si>
-  <si>
-    <t>Личный кабинет, LMS, ЛК, ЛМС</t>
-  </si>
-  <si>
-    <t>редмайн, redmine, поставить задачу</t>
-  </si>
-  <si>
-    <t>Инструкции, мануал</t>
-  </si>
-  <si>
-    <t>пропуск, ЭКД, выпускники, СКУД, общежитие, проход</t>
-  </si>
-  <si>
-    <t>пропуск, ЭКД, выпускники, СКУД, общежитие, временный проход</t>
-  </si>
-  <si>
-    <t>СКУД, Пропуск, Общежитие, ЭКД, проход</t>
-  </si>
-  <si>
-    <t>пропуск, ЭКД, СКУД, общежитие, проход</t>
-  </si>
-  <si>
-    <t>дубликат пропуска, дубликат, пропуск, ЭКД, СКУД, общежитие, проход</t>
-  </si>
-  <si>
-    <t>Предоставление доступа к ЭДО "Контур.Диадок"</t>
-  </si>
-  <si>
-    <t>Контур, Контур.Диадок, Диадок, СЗ, Служебная записка, Служебка</t>
-  </si>
-  <si>
-    <t>:page_with_curl:</t>
-  </si>
-  <si>
-    <t>Рабочее место</t>
-  </si>
-  <si>
-    <t>Компьютер, ПК, сканер, принтер, МФУ, телефон, трубка, аппарат, мышь, клавиатура, системный блок, Сетевые папки, сетевая папка, сетевой диск, Удаленный доступ, удаленка, редмайн, redmine, не работает, не включается, завис, шумит, гудит,логин,  забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, зажевал, жует, сжевал, сетевой диск, системазастрял, застряло, застряла</t>
-  </si>
-  <si>
-    <t>1С (УОП, БГУ, ЗКГУ, ФПЗ, ДО, Охрана труда)</t>
-  </si>
-  <si>
-    <t>Корп.аккаунт/почта/рассылки</t>
-  </si>
-  <si>
-    <t>Личный кабинет</t>
-  </si>
-  <si>
-    <t>Доступ в Интернет, телефон</t>
-  </si>
-  <si>
-    <t>Подключение интернета, Доступ в интернет,Интернет, телефон</t>
-  </si>
-  <si>
-    <t>Сервера и виртуалки</t>
-  </si>
-  <si>
-    <t>Сервер, виртуалка, Продление инета, продление интернета, продлить инет, продлить интернет</t>
-  </si>
-  <si>
-    <t>Онлайн-оплата</t>
-  </si>
-  <si>
-    <t>Аудитории с проекционным и звуковым оборудованием</t>
-  </si>
-  <si>
-    <t>Проектор, пульт, батарейки, трибуна лектора, трибуна, презентации, презентационное оборудование, электронная доска, интерактивная доска, стилус</t>
-  </si>
-  <si>
-    <t>Пропуск (ЭКД)</t>
-  </si>
-  <si>
-    <t>дубликат пропуска, дубликат, пропуск, ЭКД, выпускники, СКУД, общежитие</t>
-  </si>
-  <si>
-    <t>Сервер, удаленный доступ, удаленка, 1С, БГУ, ФПЗ, ДО, Документооборот, Охрана труда, пароль, ФЛС, Трудоустройство, Договор, счет, служебка, служебная записка, логин, ошибка, ЭЦП, инструкции, не работает не включается, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, браузер, УОП, делегирование, система, СЗ</t>
-  </si>
-  <si>
-    <t>Получение почты, почта, Почта физтех, почта phystech, phystech.edu, выпускники, рассылки, Корпаккаунт, аккаунт, корпоративный аккаунт, пароль, аутлук, outlook, zimbra, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, служебка, служебная записка</t>
-  </si>
-  <si>
-    <t>Выпускники, рассылки, аккаунт, ФЛС, штатное расписание, завкафедры, завкафедрой, LMS, сайт, справка, оплата, оплата общежития, ЛК</t>
-  </si>
-  <si>
-    <t>Корпаккаунт, аккаунт, корпоративный аккаунт, пароль, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль</t>
-  </si>
-  <si>
-    <t>Почта</t>
-  </si>
-  <si>
-    <t>Получение почты, почта, Почта физтех, почта phystech, phystech.edu, выпускники, рассылки, пароль, аутлук, outlook, zimbra, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль</t>
-  </si>
-  <si>
-    <t>Сервисы рассылок</t>
-  </si>
-  <si>
-    <t>рассылки</t>
-  </si>
-  <si>
-    <t>Корпоративный аккаунт</t>
-  </si>
-  <si>
-    <t>Доступ в Интернет</t>
-  </si>
-  <si>
     <t>телефон</t>
   </si>
   <si>
-    <t>Телефон, городской телефон</t>
-  </si>
-  <si>
     <t>Личный кабинет и сервисы</t>
   </si>
   <si>
     <t>ЛК</t>
+  </si>
+  <si>
+    <t>Оформление на работу</t>
+  </si>
+  <si>
+    <t>электронное трудоустройство трудоустройство hr.mipt.ru прием перевод</t>
+  </si>
+  <si>
+    <t>Инструктаж</t>
+  </si>
+  <si>
+    <t>#инструктаж #охрана труда</t>
+  </si>
+  <si>
+    <t>Кадровые документы</t>
+  </si>
+  <si>
+    <t>#образец #шаблон #бланк #должностные инструкции #ди</t>
+  </si>
+  <si>
+    <t>Повышение квалификации</t>
+  </si>
+  <si>
+    <t>#повышение квалификации #обучение #образование</t>
+  </si>
+  <si>
+    <t>Отпуск</t>
+  </si>
+  <si>
+    <t>#отпуск #график</t>
+  </si>
+  <si>
+    <t>Расчетный листок</t>
+  </si>
+  <si>
+    <t>#расчетный листок #зарплата #начисления #2-ндфл #ндфл</t>
+  </si>
+  <si>
+    <t>Дни рождения</t>
+  </si>
+  <si>
+    <t>#день рождения #дни рождения #именинники #др</t>
+  </si>
+  <si>
+    <t>Как оформить служебное командирование</t>
+  </si>
+  <si>
+    <t>#командировка #командирование</t>
+  </si>
+  <si>
+    <t>Музей МФТИ</t>
+  </si>
+  <si>
+    <t>#музей #музей МФТИ</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Создание нового подразделения</t>
+    </r>
+  </si>
+  <si>
+    <t>#новое подразделение</t>
+  </si>
+  <si>
+    <t>Новый ФЛС</t>
+  </si>
+  <si>
+    <t>#флс</t>
+  </si>
+  <si>
+    <t>ШР и оформление сотрудников</t>
+  </si>
+  <si>
+    <t>#шр #штатное расписание</t>
+  </si>
+  <si>
+    <t>Назначение мат. ответственного лица</t>
+  </si>
+  <si>
+    <t>#мат. ответственность #материальная ответственность</t>
+  </si>
+  <si>
+    <t>Табель</t>
+  </si>
+  <si>
+    <t>#табель</t>
+  </si>
+  <si>
+    <t>Заработная плата</t>
+  </si>
+  <si>
+    <t>#зп #заработная плата</t>
+  </si>
+  <si>
+    <t>График оформления приказов о стимулировании работников</t>
+  </si>
+  <si>
+    <t>#стимулирование работников #график</t>
+  </si>
+  <si>
+    <t>Замещение на время отсутствия</t>
+  </si>
+  <si>
+    <t>#ио #исполняющий обязанности</t>
+  </si>
+  <si>
+    <t>#электронное трудоустройство #трудоустройств #hr.mipt.ru #прием #перевод</t>
+  </si>
+  <si>
+    <t>Для всех сотрудников</t>
+  </si>
+  <si>
+    <t>#инструктаж #охрана труда #образец #шаблон #бланк #должностные инструкции  #ди #повышение квалификации  #обучение  #образование отпуск  #график #расчетный листок #зарплата #начисления  #2-ндфл #ндфл #день рождения  #дни рождения  #именинники #командировка  #командирование #музей  #музей МФТИ</t>
+  </si>
+  <si>
+    <t>Для руководителей</t>
+  </si>
+  <si>
+    <t>#новое подразделение #флс #шр #штатное расписание #мат. ответственность #материальная ответственность #табель #зп #заработная плата #новое подразделение #стимулирование работников  #график #ио #исполняющий обязанности</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -685,27 +1145,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -990,29 +1739,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="47.77734375" customWidth="1"/>
-    <col min="2" max="2" width="63.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.7787610619469" customWidth="1"/>
+    <col min="2" max="2" width="63.6637168141593" customWidth="1"/>
+    <col min="3" max="3" width="12.5575221238938" customWidth="1"/>
+    <col min="4" max="4" width="15.7787610619469" customWidth="1"/>
+    <col min="5" max="5" width="13.7787610619469" customWidth="1"/>
+    <col min="6" max="6" width="33.7787610619469" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,12 +1781,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1046,15 +1795,15 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1063,15 +1812,15 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1080,15 +1829,15 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1097,15 +1846,15 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1114,15 +1863,15 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1131,15 +1880,15 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1148,15 +1897,15 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1165,15 +1914,15 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1182,15 +1931,15 @@
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1199,15 +1948,15 @@
         <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1219,15 +1968,15 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1239,15 +1988,15 @@
         <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1259,15 +2008,15 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1279,15 +2028,15 @@
         <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1299,15 +2048,15 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1319,15 +2068,15 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1339,15 +2088,15 @@
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1359,15 +2108,15 @@
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1379,15 +2128,15 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1399,15 +2148,15 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1419,15 +2168,15 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>57</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -1436,15 +2185,15 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -1453,15 +2202,15 @@
         <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>62</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1470,15 +2219,15 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -1487,15 +2236,15 @@
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -1504,15 +2253,15 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -1521,15 +2270,15 @@
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -1541,15 +2290,15 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1561,15 +2310,15 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -1581,15 +2330,15 @@
         <v>3</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -1601,15 +2350,15 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1621,15 +2370,15 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -1641,15 +2390,15 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1661,15 +2410,15 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1681,15 +2430,15 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1701,15 +2450,15 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1721,15 +2470,15 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1741,15 +2490,15 @@
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>7</v>
@@ -1758,15 +2507,15 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1775,15 +2524,15 @@
         <v>4</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -1795,15 +2544,15 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1815,15 +2564,15 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1835,15 +2584,15 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -1855,15 +2604,15 @@
         <v>4</v>
       </c>
       <c r="F45" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -1875,15 +2624,15 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -1895,15 +2644,15 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -1915,15 +2664,15 @@
         <v>3</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>119</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -1935,15 +2684,15 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -1955,15 +2704,15 @@
         <v>2</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -1972,15 +2721,15 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -1989,15 +2738,15 @@
         <v>2</v>
       </c>
       <c r="F52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -2006,15 +2755,15 @@
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -2023,15 +2772,15 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="C55">
         <v>8</v>
@@ -2040,15 +2789,15 @@
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C56">
         <v>8</v>
@@ -2057,15 +2806,15 @@
         <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -2074,15 +2823,15 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C58">
         <v>9</v>
@@ -2091,15 +2840,15 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C59">
         <v>10</v>
@@ -2108,15 +2857,15 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -2125,15 +2874,15 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="C61">
         <v>10</v>
@@ -2142,15 +2891,15 @@
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C62">
         <v>10</v>
@@ -2159,15 +2908,15 @@
         <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -2176,15 +2925,15 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B64" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -2193,15 +2942,15 @@
         <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -2210,15 +2959,15 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="C66">
         <v>10</v>
@@ -2227,15 +2976,15 @@
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C67">
         <v>11</v>
@@ -2244,15 +2993,15 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C68">
         <v>11</v>
@@ -2261,15 +3010,15 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C69">
         <v>11</v>
@@ -2278,15 +3027,15 @@
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C70">
         <v>11</v>
@@ -2295,12 +3044,12 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
         <v>172</v>
@@ -2312,10 +3061,10 @@
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -2332,7 +3081,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -2349,12 +3098,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>178</v>
       </c>
       <c r="B74" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -2366,12 +3115,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -2383,12 +3132,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B76" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -2400,12 +3149,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C77">
         <v>6</v>
@@ -2417,12 +3166,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C78">
         <v>8</v>
@@ -2434,12 +3183,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B79" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C79">
         <v>9</v>
@@ -2451,12 +3200,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C80">
         <v>10</v>
@@ -2468,12 +3217,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B81" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C81">
         <v>11</v>
@@ -2485,12 +3234,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -2499,12 +3248,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -2513,12 +3262,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B84" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -2527,12 +3276,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>199</v>
       </c>
       <c r="B85" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C85">
         <v>6</v>
@@ -2541,12 +3290,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C86">
         <v>6</v>
@@ -2555,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>202</v>
       </c>
@@ -2569,8 +3318,357 @@
         <v>2</v>
       </c>
     </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" t="s">
+        <v>205</v>
+      </c>
+      <c r="C88">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>206</v>
+      </c>
+      <c r="B89" t="s">
+        <v>207</v>
+      </c>
+      <c r="C89">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>210</v>
+      </c>
+      <c r="B91" t="s">
+        <v>211</v>
+      </c>
+      <c r="C91">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>214</v>
+      </c>
+      <c r="B93" t="s">
+        <v>215</v>
+      </c>
+      <c r="C93">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" t="s">
+        <v>217</v>
+      </c>
+      <c r="C94">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>218</v>
+      </c>
+      <c r="B95" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B97" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C98">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>228</v>
+      </c>
+      <c r="B100" t="s">
+        <v>229</v>
+      </c>
+      <c r="C100">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>230</v>
+      </c>
+      <c r="B101" t="s">
+        <v>231</v>
+      </c>
+      <c r="C101">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102" t="s">
+        <v>233</v>
+      </c>
+      <c r="C102">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" t="s">
+        <v>235</v>
+      </c>
+      <c r="C103">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>236</v>
+      </c>
+      <c r="B104" t="s">
+        <v>237</v>
+      </c>
+      <c r="C104">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" t="s">
+        <v>238</v>
+      </c>
+      <c r="C105">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>239</v>
+      </c>
+      <c r="B106" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" t="s">
+        <v>242</v>
+      </c>
+      <c r="C107">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" t="s">
+        <v>205</v>
+      </c>
+      <c r="C108">
+        <v>12</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/kw/data/keywords.xlsx
+++ b/kw/data/keywords.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="245">
   <si>
     <t>name</t>
   </si>
@@ -751,6 +751,12 @@
   </si>
   <si>
     <t>#новое подразделение #флс #шр #штатное расписание #мат. ответственность #материальная ответственность #табель #зп #заработная плата #новое подразделение #стимулирование работников  #график #ио #исполняющий обязанности</t>
+  </si>
+  <si>
+    <t>Предоставление доступа к внешним ИС</t>
+  </si>
+  <si>
+    <t>МЧД, доверенность, машиночитаемая доверенность, информационные системы, ИС, внешние информационные системы, внешние ИС, ГУ, Госуслуги, ЕСИА</t>
   </si>
 </sst>
 </file>
@@ -1745,10 +1751,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3666,6 +3672,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>243</v>
+      </c>
+      <c r="B109" t="s">
+        <v>244</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/kw/data/keywords.xlsx
+++ b/kw/data/keywords.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxxx\VSprojects\bots\mipt_uit\kw\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941F92E1-D9B0-4D11-A6C4-16954516088C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10222"/>
+    <workbookView xWindow="-5142" yWindow="-12960" windowWidth="23016" windowHeight="12936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="242">
   <si>
     <t>name</t>
   </si>
@@ -37,18 +43,12 @@
     <t>Телефонный справочник</t>
   </si>
   <si>
-    <t>Телефон, Справочник, телефонный справочник, городской номер, номер</t>
-  </si>
-  <si>
     <t>:telephone_receiver:</t>
   </si>
   <si>
     <t>Ноутбук во временное пользование</t>
   </si>
   <si>
-    <t>Ноутбук, СЗ, Служебная записка, Служебка</t>
-  </si>
-  <si>
     <t>:laptop:</t>
   </si>
   <si>
@@ -64,36 +64,24 @@
     <t>Поддержка рабочих мест, настройка удаленки</t>
   </si>
   <si>
-    <t>Компьютер, ПК, сканер, принтер, МФУ, телефон, трубка, аппарат, мышь, клавиатура, системный блок, Сетевые папки, сетевая папка, сетевой диск, Удаленный доступ, удаленка, редмайн, redmine, не работает, не включается, завис, шумит, гудит,логин,  забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, зажевал, жует, сжевал, сетевой диск, система, застрял, застряло, застряла, энидеск, юнидеск, анидеск, anydesk, rds</t>
-  </si>
-  <si>
     <t>:gear:</t>
   </si>
   <si>
     <t>ИС УОП, 1С:БГУ 2.0, 1С:ЗКГУ 3.0, 1С:ФПЗ</t>
   </si>
   <si>
-    <t>1С, БГУ, ФПЗ, УОП, ЗКГУ, ЗКБУ, Сервер, удаленный доступ, удаленка, 1С, БГУ, ФПЗ, ДО, Документооборот, Охрана труда, пароль, ФЛС, Трудоустройство, Договор, счет, служебка, служебная записка, логин, ошибка, ЭЦП, инструкции, не работает не включается, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, браузер, УОП, делегирование, система, заявка, заявка 1С, заявка 1C</t>
-  </si>
-  <si>
     <t>:man_pouting_light_skin_tone:</t>
   </si>
   <si>
     <t>1С: Документооборот</t>
   </si>
   <si>
-    <t>1С, Документооборот, ДО, заявка, заявка 1С, заявка 1C</t>
-  </si>
-  <si>
     <t>:card_file_box:</t>
   </si>
   <si>
     <t>Отчет в ИС УОП на основе сведений из СКУД</t>
   </si>
   <si>
-    <t>1С, Скуд, ЭКД, УОП, учебный процесс, заявка</t>
-  </si>
-  <si>
     <t>:ledger:</t>
   </si>
   <si>
@@ -109,24 +97,15 @@
     <t>Техподдержка 1С</t>
   </si>
   <si>
-    <t>1С, БГУ, ФПЗ, ЗКГУ, ЗКБУ, Документооборот, редмайн, redmine, УОП, ДО</t>
-  </si>
-  <si>
     <t>Инструкции 1С</t>
   </si>
   <si>
-    <t>1С, БГУ, ФПЗ, ЗКГУ, ЗКБУ, Документооборот, Инструкции, УОП, ДО, мануал</t>
-  </si>
-  <si>
     <t>:orange_book:</t>
   </si>
   <si>
     <t>Корп. аккаунт: получить и восстановить</t>
   </si>
   <si>
-    <t>Получение почты, почта, Почта физтех, почта phystech, phystech.edu, выпускники, рассылки, Корпаккаунт, аккаунт, корпоративный аккаунт, пароль, аутлук, outlook, zimbra, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль</t>
-  </si>
-  <si>
     <t>:man_office_worker_light_skin_tone:</t>
   </si>
   <si>
@@ -139,42 +118,15 @@
     <t>Корп. аккаунт @mipt.ru для сотрудников базовых кафедр, дистанционных работников</t>
   </si>
   <si>
-    <t xml:space="preserve">Получение почты @mipt.ru для подразделения и мероприятия </t>
-  </si>
-  <si>
     <t>:closed_mailbox_with_lowered_flag:</t>
   </si>
   <si>
-    <t>Получение @phystech.edu студентами, аспирантами, выпускниками</t>
-  </si>
-  <si>
-    <t>Получение почты, почта, Почта физтех, почта phystech, phystech.edu, выпускники, рассылки, аккаунт, аутлук, outlook, zimbra, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль</t>
-  </si>
-  <si>
-    <t>Получение @phystech.edu сотрудниками</t>
-  </si>
-  <si>
-    <t>Получение почты, почта, Почта физтех, почта phystech, phystech.edu, рассылки, аккаунт, аутлук, outlook, zimbra, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль</t>
-  </si>
-  <si>
-    <t>Получение @phystech.edu для подразделения и мероприятия</t>
-  </si>
-  <si>
-    <t>Получение почты, почта, Почта физтех, логин, Получение почты, почта, Почта физтех, почта phystech, phystech.edu, рассылки, аккаунт, аутлук, outlook, zimbra, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль</t>
-  </si>
-  <si>
     <t xml:space="preserve">Восстановление пароля от @phystech.edu </t>
   </si>
   <si>
-    <t>Почта, Почта физтех, Пароли, логин, Получение почты, почта, почта phystech, phystech.edu, рассылки, аккаунт, аутлук, outlook, zimbra, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль</t>
-  </si>
-  <si>
     <t>Сервис рассылок в Личном кабинете</t>
   </si>
   <si>
-    <t>Рассылки, лк</t>
-  </si>
-  <si>
     <t>Группы рассылки в домене @mipt.ru</t>
   </si>
   <si>
@@ -184,51 +136,30 @@
     <t>Массовые рассылки на внешние адреса</t>
   </si>
   <si>
-    <t xml:space="preserve">Личный кабинет </t>
-  </si>
-  <si>
-    <t>Личный кабинет, Выпускники, рассылки, аккаунт, сайт, справка, оплата, оплата общежития, лк</t>
-  </si>
-  <si>
     <t>Доступ к данным ФЛС</t>
   </si>
   <si>
-    <t>Личный кабинет, ФЛС, СЗ, Служебная записка, Служебка</t>
-  </si>
-  <si>
     <t>:dollar_banknote:</t>
   </si>
   <si>
     <t>Заказ 2-НДФЛ</t>
   </si>
   <si>
-    <t>Личный кабинет, 2-НДФЛ, НДФЛ</t>
-  </si>
-  <si>
     <t>:page_facing_up:</t>
   </si>
   <si>
     <t>Мое подразделение</t>
   </si>
   <si>
-    <t>Личный кабинет, штатное расписание, ЛК</t>
-  </si>
-  <si>
     <t>:office_building:</t>
   </si>
   <si>
     <t xml:space="preserve">Управление курсами МФТИ </t>
   </si>
   <si>
-    <t>Личный кабинет, LMS, ЛК, ЛМС</t>
-  </si>
-  <si>
     <t>Сервис рассылок</t>
   </si>
   <si>
-    <t>Личный кабинет, Рассылки, ЛК</t>
-  </si>
-  <si>
     <t>Беспроводное подключение (WiFi)</t>
   </si>
   <si>
@@ -259,9 +190,6 @@
     <t>Доступ для серверов и компьютерных классов</t>
   </si>
   <si>
-    <t>Подключение интернета, Доступ в интернет,Интернет, сервер</t>
-  </si>
-  <si>
     <t>Новое подключение к корпоративной сети МФТИ</t>
   </si>
   <si>
@@ -271,9 +199,6 @@
     <t>Техподдержка сети</t>
   </si>
   <si>
-    <t>Подключение интернета, Доступ в интернет, редмайн, redmine, Интернет</t>
-  </si>
-  <si>
     <t>Подключение телефонного аппарата</t>
   </si>
   <si>
@@ -286,9 +211,6 @@
     <t>Подключение городского телефонного номера</t>
   </si>
   <si>
-    <t>Телефон, городской телефон</t>
-  </si>
-  <si>
     <t>Изменение номера в телефонном справочнике на сайте</t>
   </si>
   <si>
@@ -331,9 +253,6 @@
     <t>Контакты Управления по работе с персоналом</t>
   </si>
   <si>
-    <t>Трудоустройство, Вакансии, Конкурс ППС, контакты</t>
-  </si>
-  <si>
     <t>:receipt:</t>
   </si>
   <si>
@@ -385,21 +304,12 @@
     <t>Виртуальный сервер</t>
   </si>
   <si>
-    <t>Сервер, сервера, серверы, виртуалка, сайт, Продление инета, продление интернета, продлить инет, продлить интернет</t>
-  </si>
-  <si>
     <t>Физическое размещение оборудования</t>
   </si>
   <si>
-    <t>Сервер, сервера, серверы, виртуалка, Продление инета, продление интернета, продлить инет, продлить интернет</t>
-  </si>
-  <si>
     <t>Переадресация запросов с доменного имени *.mipt.ru</t>
   </si>
   <si>
-    <t>сайт, Домен</t>
-  </si>
-  <si>
     <t>:left_arrow_curving_right:</t>
   </si>
   <si>
@@ -409,9 +319,6 @@
     <t>Вычислительные ресурсы ЦОД для участников «Физтех.Идея»</t>
   </si>
   <si>
-    <t>Сервер, сервера, серверы, виртуалка</t>
-  </si>
-  <si>
     <t>Техподдержка центра обработки данных (ЦОД)</t>
   </si>
   <si>
@@ -469,12 +376,6 @@
     <t>:clapper_board:</t>
   </si>
   <si>
-    <t>Мобильное презентационное оборудование</t>
-  </si>
-  <si>
-    <t>:mobile_phone:</t>
-  </si>
-  <si>
     <t>Система видеоконференций в аудитории 310УЛК2</t>
   </si>
   <si>
@@ -487,9 +388,6 @@
     <t>ТП аудиторий с проекционным и звуковым оборудованием</t>
   </si>
   <si>
-    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, трибуна лектора, трибуна, презентации, презентационное оборудование, Видеоконференции</t>
-  </si>
-  <si>
     <t>:studio_microphone:</t>
   </si>
   <si>
@@ -502,15 +400,6 @@
     <t>:key:</t>
   </si>
   <si>
-    <t>Временный пропуск</t>
-  </si>
-  <si>
-    <t>пропуск, ЭКД, выпускники, СКУД, общежитие, временный проход</t>
-  </si>
-  <si>
-    <t>:old_key:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Правила прохода в корпуса и общежития </t>
   </si>
   <si>
@@ -523,9 +412,6 @@
     <t>Пропуск для выпускников</t>
   </si>
   <si>
-    <t>пропуск, ЭКД, СКУД, общежитие, проход</t>
-  </si>
-  <si>
     <t>:ticket:</t>
   </si>
   <si>
@@ -565,9 +451,6 @@
     <t>Личный кабинет</t>
   </si>
   <si>
-    <t>Выпускники, рассылки, аккаунт, ФЛС, штатное расписание, завкафедры, завкафедрой, LMS, сайт, справка, оплата, оплата общежития, ЛК</t>
-  </si>
-  <si>
     <t>Доступ в Интернет, телефон</t>
   </si>
   <si>
@@ -631,9 +514,6 @@
     <t>Оформление на работу</t>
   </si>
   <si>
-    <t>электронное трудоустройство трудоустройство hr.mipt.ru прием перевод</t>
-  </si>
-  <si>
     <t>Инструктаж</t>
   </si>
   <si>
@@ -643,27 +523,15 @@
     <t>Кадровые документы</t>
   </si>
   <si>
-    <t>#образец #шаблон #бланк #должностные инструкции #ди</t>
-  </si>
-  <si>
     <t>Повышение квалификации</t>
   </si>
   <si>
-    <t>#повышение квалификации #обучение #образование</t>
-  </si>
-  <si>
     <t>Отпуск</t>
   </si>
   <si>
-    <t>#отпуск #график</t>
-  </si>
-  <si>
     <t>Расчетный листок</t>
   </si>
   <si>
-    <t>#расчетный листок #зарплата #начисления #2-ндфл #ндфл</t>
-  </si>
-  <si>
     <t>Дни рождения</t>
   </si>
   <si>
@@ -673,13 +541,7 @@
     <t>Как оформить служебное командирование</t>
   </si>
   <si>
-    <t>#командировка #командирование</t>
-  </si>
-  <si>
     <t>Музей МФТИ</t>
-  </si>
-  <si>
-    <t>#музей #музей МФТИ</t>
   </si>
   <si>
     <r>
@@ -705,15 +567,9 @@
     <t>ШР и оформление сотрудников</t>
   </si>
   <si>
-    <t>#шр #штатное расписание</t>
-  </si>
-  <si>
     <t>Назначение мат. ответственного лица</t>
   </si>
   <si>
-    <t>#мат. ответственность #материальная ответственность</t>
-  </si>
-  <si>
     <t>Табель</t>
   </si>
   <si>
@@ -723,21 +579,12 @@
     <t>Заработная плата</t>
   </si>
   <si>
-    <t>#зп #заработная плата</t>
-  </si>
-  <si>
     <t>График оформления приказов о стимулировании работников</t>
   </si>
   <si>
-    <t>#стимулирование работников #график</t>
-  </si>
-  <si>
     <t>Замещение на время отсутствия</t>
   </si>
   <si>
-    <t>#ио #исполняющий обязанности</t>
-  </si>
-  <si>
     <t>#электронное трудоустройство #трудоустройств #hr.mipt.ru #прием #перевод</t>
   </si>
   <si>
@@ -753,28 +600,180 @@
     <t>#новое подразделение #флс #шр #штатное расписание #мат. ответственность #материальная ответственность #табель #зп #заработная плата #новое подразделение #стимулирование работников  #график #ио #исполняющий обязанности</t>
   </si>
   <si>
-    <t>Предоставление доступа к внешним ИС</t>
-  </si>
-  <si>
-    <t>МЧД, доверенность, машиночитаемая доверенность, информационные системы, ИС, внешние информационные системы, внешние ИС, ГУ, Госуслуги, ЕСИА</t>
+    <t>Ноутбук</t>
+  </si>
+  <si>
+    <t xml:space="preserve">компьютер ПК сканер принтер МФУ телефон трубка аппарат мышь клавиатура системный блок сетевые папки сетевой диск удаленный удаленный доступ удаленка редмайн redmine не работает не включается завис шумит гудит логин забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль пароль зажевал жует система застрял энидеск anydesk </t>
+  </si>
+  <si>
+    <t>Доступ к внешним ИС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">госуслуги закупки торговые площадки этп этп бюджет бюджетное планирование росказна честный знак субсидии грант отходы статистика гивц </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1С БГУ ФПЗ УОП ЗКГУ ЗКБУ сервер удаленный доступ удаленка до документооборот охрана труда пароль флс трудоустройство договор счет служебка служебная записка служебная логин ошибка эцп инструкции не работает не включается забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль браузер делегирование система </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1С документооборот до </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1С скуд отчет проход нахождение посещение экд уоп учебный процесс </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1С бгу фпз зкгу зкбу документооборот редмайн redmine уоп до </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1С бгу фпз зкгу зкбу документооборот инструкции уоп до </t>
+  </si>
+  <si>
+    <t xml:space="preserve">получение почты получить почту почта почта физтех почта phystech phystech.edu выпускники рассылки корпаккаунт аккаунт корпоративный аккаунт пароль аутлук outlook zimbra забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль </t>
+  </si>
+  <si>
+    <t xml:space="preserve">получение почты почта почта физтех почта phystech phystech.edu выпускники рассылки корпаккаунт аккаунт корпоративный аккаунт пароль аутлук outlook zimbra забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль </t>
+  </si>
+  <si>
+    <t>Почта mipt.ru подразделениям, мероприятиям</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получение почты получить почту почта почта физтех физтех еду почта phystech phystech.edu выпускники рассылки аккаунт пароль аутлук outlook zimbra забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль </t>
+  </si>
+  <si>
+    <t>Почта phystech.edu студентами, аспирантами, выпускниками</t>
+  </si>
+  <si>
+    <t>Почта phystech.edu сотрудниками</t>
+  </si>
+  <si>
+    <t xml:space="preserve">получение почты почта почта физтех почта phystech phystech.edu выпускники рассылки аккаунт пароль аутлук outlook zimbra забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль </t>
+  </si>
+  <si>
+    <t>Почта phystech.edu подразделениям и мероприятиям</t>
+  </si>
+  <si>
+    <t>кабинет</t>
+  </si>
+  <si>
+    <t>Личный кабинет, ФЛС</t>
+  </si>
+  <si>
+    <t>Личный кабинет, 2-НДФЛ, НДФЛ, 2 ндфл</t>
+  </si>
+  <si>
+    <t>Личный кабинет, штатное расписание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">управление курсами курсы личный кабинет lms лмс </t>
+  </si>
+  <si>
+    <t>Личный кабинет, Рассылки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключение интернета доступ в интернет подключение доступ интернет </t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключение интернета доступ в интернет подключение мероприятия интернет </t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключение интернета доступ в интернет подключение интернет </t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключение интернета доступ в интернет доступ интернет </t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключение интернета доступ в интернет интернет доступ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключение интернета доступ в интернет интернет редмайн redmine </t>
+  </si>
+  <si>
+    <t>Трудоустройство, Вакансии, Конкурс ППС, контакты, персонал, урп</t>
+  </si>
+  <si>
+    <t>Сервер, сервера, серверы, виртуалка, сайт, продление интернета, продлить интернет</t>
+  </si>
+  <si>
+    <t>сервер, виртуалка, продлить интернет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сайт переадресация адрес url домен </t>
+  </si>
+  <si>
+    <t xml:space="preserve">сервер виртуалка цод продление интернета </t>
+  </si>
+  <si>
+    <t xml:space="preserve">сервер виртуалка физтех идея продление интернета </t>
+  </si>
+  <si>
+    <t xml:space="preserve">сервер виртуалка продление интернета интернет </t>
+  </si>
+  <si>
+    <t>сайт, Домен, поддомен</t>
+  </si>
+  <si>
+    <t>онлайн платежи, платежи, оплата</t>
+  </si>
+  <si>
+    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, трибуна лектора, трибуна, презентации, презентационное оборудование, Видеоконференции, вкс</t>
+  </si>
+  <si>
+    <t>пропуск, ЭКД, СКУД, общежитие, проход, выпускники, выпускник</t>
+  </si>
+  <si>
+    <t>трудоустройство</t>
+  </si>
+  <si>
+    <t>документы</t>
+  </si>
+  <si>
+    <t>квалификация квалификации</t>
+  </si>
+  <si>
+    <t>#отпуск</t>
+  </si>
+  <si>
+    <t>#расчетный листок</t>
+  </si>
+  <si>
+    <t>#командировка</t>
+  </si>
+  <si>
+    <t>#музей</t>
+  </si>
+  <si>
+    <t>#штатное расписание</t>
+  </si>
+  <si>
+    <t>назначение</t>
+  </si>
+  <si>
+    <t>#зп #заработная плата зарплата</t>
+  </si>
+  <si>
+    <t>#стимулирование</t>
+  </si>
+  <si>
+    <t>заместитель замещение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -789,346 +788,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1151,316 +820,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1745,26 +1129,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="47.7787610619469" customWidth="1"/>
-    <col min="2" max="2" width="63.6637168141593" customWidth="1"/>
-    <col min="3" max="3" width="12.5575221238938" customWidth="1"/>
-    <col min="4" max="4" width="15.7787610619469" customWidth="1"/>
-    <col min="5" max="5" width="13.7787610619469" customWidth="1"/>
-    <col min="6" max="6" width="33.7787610619469" customWidth="1"/>
+    <col min="1" max="1" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="63.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1792,7 +1176,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1801,188 +1185,182 @@
         <v>-1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>197</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1991,38 +1369,38 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2031,18 +1409,18 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -2051,18 +1429,18 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2071,18 +1449,18 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -2091,18 +1469,18 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2111,38 +1489,38 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>205</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -2151,18 +1529,18 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -2171,140 +1549,155 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
-        <v>60</v>
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
         <v>5</v>
       </c>
-      <c r="D28">
-        <v>6</v>
-      </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>212</v>
       </c>
       <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -2313,18 +1706,18 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -2333,18 +1726,18 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -2353,18 +1746,18 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>215</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -2373,18 +1766,18 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>216</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -2393,18 +1786,18 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -2413,18 +1806,18 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -2433,38 +1826,38 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>218</v>
       </c>
       <c r="C37">
         <v>6</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -2473,18 +1866,18 @@
         <v>2</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -2493,72 +1886,69 @@
         <v>2</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="C40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="C41">
         <v>7</v>
       </c>
       <c r="D41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C42">
         <v>7</v>
       </c>
       <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -2567,18 +1957,18 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -2587,58 +1977,58 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="C45">
         <v>7</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>7</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -2647,18 +2037,18 @@
         <v>3</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -2667,38 +2057,38 @@
         <v>3</v>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C49">
         <v>7</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -2707,290 +2097,293 @@
         <v>5</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
       </c>
       <c r="F51" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="B52" t="s">
-        <v>125</v>
+        <v>220</v>
       </c>
       <c r="C52">
         <v>8</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="C53">
         <v>8</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="C54">
         <v>8</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>131</v>
+        <v>223</v>
       </c>
       <c r="C55">
         <v>8</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>224</v>
       </c>
       <c r="C56">
         <v>8</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="C57">
         <v>8</v>
       </c>
       <c r="D57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>137</v>
+        <v>226</v>
       </c>
       <c r="C58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>227</v>
       </c>
       <c r="C59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>144</v>
+        <v>107</v>
       </c>
       <c r="C61">
         <v>10</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C62">
         <v>10</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C63">
         <v>10</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="C65">
         <v>10</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B66" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="C66">
         <v>10</v>
       </c>
       <c r="D66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="C67">
         <v>11</v>
@@ -2999,15 +2392,15 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C68">
         <v>11</v>
@@ -3016,15 +2409,15 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B69" t="s">
-        <v>166</v>
+        <v>229</v>
       </c>
       <c r="C69">
         <v>11</v>
@@ -3033,15 +2426,15 @@
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="C70">
         <v>11</v>
@@ -3050,303 +2443,303 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="C71">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C72">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F72" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>-1</v>
       </c>
       <c r="F73" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74">
         <v>-1</v>
       </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="C75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>-1</v>
       </c>
       <c r="F75" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="B76" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="C76">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D76">
         <v>-1</v>
       </c>
       <c r="F76" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="C77">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D77">
         <v>-1</v>
       </c>
       <c r="F77" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C78">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>-1</v>
       </c>
       <c r="F78" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D79">
         <v>-1</v>
       </c>
       <c r="F79" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="C80">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D80">
-        <v>-1</v>
-      </c>
-      <c r="F80" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="B81" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D81">
-        <v>-1</v>
-      </c>
-      <c r="F81" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="C82">
         <v>4</v>
       </c>
       <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="C84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="C85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B86" t="s">
-        <v>201</v>
+        <v>230</v>
       </c>
       <c r="C86">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="B87" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C87">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D87">
         <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="B88" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C88">
         <v>12</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>206</v>
-      </c>
-      <c r="B89" t="s">
-        <v>207</v>
+        <v>167</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="C89">
         <v>12</v>
@@ -3355,15 +2748,15 @@
         <v>2</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>208</v>
-      </c>
-      <c r="B90" t="s">
-        <v>209</v>
+        <v>168</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="C90">
         <v>12</v>
@@ -3372,15 +2765,15 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>210</v>
-      </c>
-      <c r="B91" t="s">
-        <v>211</v>
+        <v>169</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -3389,15 +2782,15 @@
         <v>2</v>
       </c>
       <c r="E91">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="C92">
         <v>12</v>
@@ -3406,15 +2799,15 @@
         <v>2</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>214</v>
-      </c>
-      <c r="B93" t="s">
-        <v>215</v>
+        <v>172</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="C93">
         <v>12</v>
@@ -3423,15 +2816,15 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>216</v>
-      </c>
-      <c r="B94" t="s">
-        <v>217</v>
+        <v>173</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>236</v>
       </c>
       <c r="C94">
         <v>12</v>
@@ -3440,49 +2833,49 @@
         <v>2</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" t="s">
-        <v>218</v>
+      <c r="A95" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="B95" t="s">
-        <v>219</v>
+        <v>175</v>
       </c>
       <c r="C95">
         <v>12</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="B96" t="s">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="C96">
         <v>12</v>
       </c>
       <c r="D96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B97" t="s">
-        <v>223</v>
+      <c r="A97" t="s">
+        <v>178</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>237</v>
       </c>
       <c r="C97">
         <v>12</v>
@@ -3491,15 +2884,15 @@
         <v>3</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>224</v>
-      </c>
-      <c r="B98" t="s">
-        <v>225</v>
+        <v>179</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>238</v>
       </c>
       <c r="C98">
         <v>12</v>
@@ -3508,15 +2901,15 @@
         <v>3</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="B99" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="C99">
         <v>12</v>
@@ -3525,15 +2918,15 @@
         <v>3</v>
       </c>
       <c r="E99">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>228</v>
-      </c>
-      <c r="B100" t="s">
-        <v>229</v>
+        <v>182</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="C100">
         <v>12</v>
@@ -3542,15 +2935,15 @@
         <v>3</v>
       </c>
       <c r="E100">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>230</v>
-      </c>
-      <c r="B101" t="s">
-        <v>231</v>
+        <v>183</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="C101">
         <v>12</v>
@@ -3559,15 +2952,15 @@
         <v>3</v>
       </c>
       <c r="E101">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>232</v>
-      </c>
-      <c r="B102" t="s">
-        <v>233</v>
+        <v>184</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="C102">
         <v>12</v>
@@ -3576,119 +2969,70 @@
         <v>3</v>
       </c>
       <c r="E102">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="B103" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="C103">
         <v>12</v>
       </c>
       <c r="D103">
-        <v>3</v>
-      </c>
-      <c r="E103">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>236</v>
-      </c>
-      <c r="B104" t="s">
-        <v>237</v>
+        <v>186</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C104">
         <v>12</v>
       </c>
       <c r="D104">
-        <v>3</v>
-      </c>
-      <c r="E104">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B105" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="C105">
         <v>12</v>
       </c>
       <c r="D105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>239</v>
-      </c>
-      <c r="B106" t="s">
-        <v>240</v>
+        <v>163</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="C106">
         <v>12</v>
       </c>
       <c r="D106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" t="s">
-        <v>241</v>
-      </c>
-      <c r="B107" t="s">
-        <v>242</v>
-      </c>
-      <c r="C107">
-        <v>12</v>
-      </c>
-      <c r="D107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>204</v>
-      </c>
-      <c r="B108" t="s">
-        <v>205</v>
-      </c>
-      <c r="C108">
-        <v>12</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-      <c r="E108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" t="s">
-        <v>243</v>
-      </c>
-      <c r="B109" t="s">
-        <v>244</v>
-      </c>
-      <c r="C109">
-        <v>7</v>
-      </c>
-      <c r="D109">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kw/data/keywords.xlsx
+++ b/kw/data/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxxx\VSprojects\bots\mipt_uit\kw\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941F92E1-D9B0-4D11-A6C4-16954516088C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85180C5E-9FD1-4331-9912-3CEA518620C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5142" yWindow="-12960" windowWidth="23016" windowHeight="12936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="228">
   <si>
     <t>name</t>
   </si>
@@ -88,9 +88,6 @@
     <t>1С: Охрана Труда</t>
   </si>
   <si>
-    <t>1С, Охрана труда</t>
-  </si>
-  <si>
     <t>:locked_with_key:</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>Изменение номера в телефонном справочнике на сайте</t>
   </si>
   <si>
-    <t>Телефон, Справочник, телефонный справочник</t>
-  </si>
-  <si>
     <t>Трудоустройство в МФТИ</t>
   </si>
   <si>
@@ -238,15 +232,9 @@
     <t>Вакансии МФТИ</t>
   </si>
   <si>
-    <t>Выпускники, Трудоустройство, Вакансии hr, hr-портал</t>
-  </si>
-  <si>
     <t>Схема участия в конкурсе ППС</t>
   </si>
   <si>
-    <t>Трудоустройство, Вакансии, Конкурс ППС</t>
-  </si>
-  <si>
     <t>:memo:</t>
   </si>
   <si>
@@ -334,18 +322,12 @@
     <t>Подключение онлайн-платежей</t>
   </si>
   <si>
-    <t>онлайн платежи, платежи</t>
-  </si>
-  <si>
     <t>:credit_card:</t>
   </si>
   <si>
     <t>Проекционное оборудование</t>
   </si>
   <si>
-    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, презентации, презентационное оборудование, трибуна лектора, трибуна, электронная доска, интерактивная доска, презентационное оборудование, стилус</t>
-  </si>
-  <si>
     <t>:movie_camera:</t>
   </si>
   <si>
@@ -394,18 +376,12 @@
     <t>Пропуск для обучающихся и штатных сотрудников</t>
   </si>
   <si>
-    <t>пропуск, ЭКД, выпускники, СКУД, общежитие, проход</t>
-  </si>
-  <si>
     <t>:key:</t>
   </si>
   <si>
     <t xml:space="preserve">Правила прохода в корпуса и общежития </t>
   </si>
   <si>
-    <t>СКУД, Пропуск, Общежитие, ЭКД, проход</t>
-  </si>
-  <si>
     <t>:notebook:</t>
   </si>
   <si>
@@ -418,9 +394,6 @@
     <t>Выдача дубликата пропуска</t>
   </si>
   <si>
-    <t>дубликат пропуска, дубликат, пропуск, ЭКД, СКУД, общежитие, проход</t>
-  </si>
-  <si>
     <t>Предоставление доступа к ЭДО "Контур.Диадок"</t>
   </si>
   <si>
@@ -430,52 +403,7 @@
     <t>:page_with_curl:</t>
   </si>
   <si>
-    <t>Рабочее место</t>
-  </si>
-  <si>
-    <t>Компьютер, ПК, сканер, принтер, МФУ, телефон, трубка, аппарат, мышь, клавиатура, системный блок, Сетевые папки, сетевая папка, сетевой диск, Удаленный доступ, удаленка, редмайн, redmine, не работает, не включается, завис, шумит, гудит,логин,  забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, зажевал, жует, сжевал, сетевой диск, системазастрял, застряло, застряла</t>
-  </si>
-  <si>
-    <t>1С (УОП, БГУ, ЗКГУ, ФПЗ, ДО, Охрана труда)</t>
-  </si>
-  <si>
-    <t>Сервер, удаленный доступ, удаленка, 1С, БГУ, ФПЗ, ДО, Документооборот, Охрана труда, пароль, ФЛС, Трудоустройство, Договор, счет, служебка, служебная записка, логин, ошибка, ЭЦП, инструкции, не работает не включается, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, браузер, УОП, делегирование, система, СЗ</t>
-  </si>
-  <si>
-    <t>Корп.аккаунт/почта/рассылки</t>
-  </si>
-  <si>
-    <t>Получение почты, почта, Почта физтех, почта phystech, phystech.edu, выпускники, рассылки, Корпаккаунт, аккаунт, корпоративный аккаунт, пароль, аутлук, outlook, zimbra, забыл пароль, пароль, сброс пароля, сброс, сбросить пароль, обновить пароль, служебка, служебная записка</t>
-  </si>
-  <si>
     <t>Личный кабинет</t>
-  </si>
-  <si>
-    <t>Доступ в Интернет, телефон</t>
-  </si>
-  <si>
-    <t>Подключение интернета, Доступ в интернет,Интернет, телефон</t>
-  </si>
-  <si>
-    <t>Сервера и виртуалки</t>
-  </si>
-  <si>
-    <t>Сервер, виртуалка, Продление инета, продление интернета, продлить инет, продлить интернет</t>
-  </si>
-  <si>
-    <t>Онлайн-оплата</t>
-  </si>
-  <si>
-    <t>Аудитории с проекционным и звуковым оборудованием</t>
-  </si>
-  <si>
-    <t>Проектор, пульт, батарейки, трибуна лектора, трибуна, презентации, презентационное оборудование, электронная доска, интерактивная доска, стилус</t>
-  </si>
-  <si>
-    <t>Пропуск (ЭКД)</t>
-  </si>
-  <si>
-    <t>дубликат пропуска, дубликат, пропуск, ЭКД, выпускники, СКУД, общежитие</t>
   </si>
   <si>
     <t>Корпоративный аккаунт</t>
@@ -591,9 +519,6 @@
     <t>Для всех сотрудников</t>
   </si>
   <si>
-    <t>#инструктаж #охрана труда #образец #шаблон #бланк #должностные инструкции  #ди #повышение квалификации  #обучение  #образование отпуск  #график #расчетный листок #зарплата #начисления  #2-ндфл #ндфл #день рождения  #дни рождения  #именинники #командировка  #командирование #музей  #музей МФТИ</t>
-  </si>
-  <si>
     <t>Для руководителей</t>
   </si>
   <si>
@@ -603,108 +528,42 @@
     <t>Ноутбук</t>
   </si>
   <si>
-    <t xml:space="preserve">компьютер ПК сканер принтер МФУ телефон трубка аппарат мышь клавиатура системный блок сетевые папки сетевой диск удаленный удаленный доступ удаленка редмайн redmine не работает не включается завис шумит гудит логин забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль пароль зажевал жует система застрял энидеск anydesk </t>
-  </si>
-  <si>
     <t>Доступ к внешним ИС</t>
   </si>
   <si>
     <t xml:space="preserve">госуслуги закупки торговые площадки этп этп бюджет бюджетное планирование росказна честный знак субсидии грант отходы статистика гивц </t>
   </si>
   <si>
-    <t xml:space="preserve">1С БГУ ФПЗ УОП ЗКГУ ЗКБУ сервер удаленный доступ удаленка до документооборот охрана труда пароль флс трудоустройство договор счет служебка служебная записка служебная логин ошибка эцп инструкции не работает не включается забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль браузер делегирование система </t>
-  </si>
-  <si>
     <t xml:space="preserve">1С документооборот до </t>
   </si>
   <si>
-    <t xml:space="preserve">1С скуд отчет проход нахождение посещение экд уоп учебный процесс </t>
-  </si>
-  <si>
     <t xml:space="preserve">1С бгу фпз зкгу зкбу документооборот редмайн redmine уоп до </t>
   </si>
   <si>
     <t xml:space="preserve">1С бгу фпз зкгу зкбу документооборот инструкции уоп до </t>
   </si>
   <si>
-    <t xml:space="preserve">получение почты получить почту почта почта физтех почта phystech phystech.edu выпускники рассылки корпаккаунт аккаунт корпоративный аккаунт пароль аутлук outlook zimbra забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль </t>
-  </si>
-  <si>
-    <t xml:space="preserve">получение почты почта почта физтех почта phystech phystech.edu выпускники рассылки корпаккаунт аккаунт корпоративный аккаунт пароль аутлук outlook zimbra забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль </t>
-  </si>
-  <si>
     <t>Почта mipt.ru подразделениям, мероприятиям</t>
   </si>
   <si>
-    <t xml:space="preserve">получение почты получить почту почта почта физтех физтех еду почта phystech phystech.edu выпускники рассылки аккаунт пароль аутлук outlook zimbra забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль </t>
-  </si>
-  <si>
     <t>Почта phystech.edu студентами, аспирантами, выпускниками</t>
   </si>
   <si>
     <t>Почта phystech.edu сотрудниками</t>
   </si>
   <si>
-    <t xml:space="preserve">получение почты почта почта физтех почта phystech phystech.edu выпускники рассылки аккаунт пароль аутлук outlook zimbra забыл пароль пароль сброс пароля сброс сбросить пароль обновить пароль </t>
-  </si>
-  <si>
     <t>Почта phystech.edu подразделениям и мероприятиям</t>
   </si>
   <si>
-    <t>кабинет</t>
-  </si>
-  <si>
-    <t>Личный кабинет, ФЛС</t>
-  </si>
-  <si>
-    <t>Личный кабинет, 2-НДФЛ, НДФЛ, 2 ндфл</t>
-  </si>
-  <si>
-    <t>Личный кабинет, штатное расписание</t>
-  </si>
-  <si>
-    <t xml:space="preserve">управление курсами курсы личный кабинет lms лмс </t>
-  </si>
-  <si>
-    <t>Личный кабинет, Рассылки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">подключение интернета доступ в интернет подключение доступ интернет </t>
-  </si>
-  <si>
-    <t xml:space="preserve">подключение интернета доступ в интернет подключение мероприятия интернет </t>
-  </si>
-  <si>
     <t xml:space="preserve">подключение интернета доступ в интернет подключение интернет </t>
   </si>
   <si>
-    <t xml:space="preserve">подключение интернета доступ в интернет доступ интернет </t>
-  </si>
-  <si>
-    <t xml:space="preserve">подключение интернета доступ в интернет интернет доступ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">подключение интернета доступ в интернет интернет редмайн redmine </t>
-  </si>
-  <si>
     <t>Трудоустройство, Вакансии, Конкурс ППС, контакты, персонал, урп</t>
   </si>
   <si>
-    <t>Сервер, сервера, серверы, виртуалка, сайт, продление интернета, продлить интернет</t>
-  </si>
-  <si>
-    <t>сервер, виртуалка, продлить интернет</t>
-  </si>
-  <si>
     <t xml:space="preserve">сайт переадресация адрес url домен </t>
   </si>
   <si>
-    <t xml:space="preserve">сервер виртуалка цод продление интернета </t>
-  </si>
-  <si>
-    <t xml:space="preserve">сервер виртуалка физтех идея продление интернета </t>
-  </si>
-  <si>
     <t xml:space="preserve">сервер виртуалка продление интернета интернет </t>
   </si>
   <si>
@@ -714,12 +573,6 @@
     <t>онлайн платежи, платежи, оплата</t>
   </si>
   <si>
-    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, трибуна лектора, трибуна, презентации, презентационное оборудование, Видеоконференции, вкс</t>
-  </si>
-  <si>
-    <t>пропуск, ЭКД, СКУД, общежитие, проход, выпускники, выпускник</t>
-  </si>
-  <si>
     <t>трудоустройство</t>
   </si>
   <si>
@@ -754,18 +607,131 @@
   </si>
   <si>
     <t>заместитель замещение</t>
+  </si>
+  <si>
+    <t>Телефон, телефонный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">компьютер ПК сканер принтер МФУ мышь клавиатура системный блок сетевые папки сетевой диск удаленный удаленный удаленка не работает не включается завис шумит гудит  пароль обновить пароль пароль зажевал жует застрял энидеск anydesk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1С БГУ ФПЗ УОП ЗКГУ ЗКБУ до документооборот охрана труда флс договор счет служебка служебная эцп забыл пароль пароль делегирование </t>
+  </si>
+  <si>
+    <t>1С скуд отчет проход нахождение посещение экд уоп</t>
+  </si>
+  <si>
+    <t>получение почты получить почту почта корпаккаунт аккаунт корпоративный пароль аутлук outlook zimbra сброс пароль</t>
+  </si>
+  <si>
+    <t>корпаккаунт корпоративный аккаунт пароль</t>
+  </si>
+  <si>
+    <t>получение почты получить почту почта корпаккаунт корпоративный аккаунт пароль</t>
+  </si>
+  <si>
+    <t>получение почты получить почту почта почта физтех физтех еду почта phystech phystech.edu выпускники пароль</t>
+  </si>
+  <si>
+    <t>получение почты почта почта физтех почта phystech phystech.edu пароль</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пароль </t>
+  </si>
+  <si>
+    <t>кабинет выпускники рассылки справка оплата</t>
+  </si>
+  <si>
+    <t>ФЛС</t>
+  </si>
+  <si>
+    <t>2-НДФЛ, НДФЛ, 2 ндфл</t>
+  </si>
+  <si>
+    <t>штатное расписание</t>
+  </si>
+  <si>
+    <t xml:space="preserve">управление курсами курсы lms лмс </t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключение доступ интернет </t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключение мероприятия интернет </t>
+  </si>
+  <si>
+    <t xml:space="preserve">подключение интернет </t>
+  </si>
+  <si>
+    <t xml:space="preserve">доступ интернет </t>
+  </si>
+  <si>
+    <t xml:space="preserve">интернет доступ </t>
+  </si>
+  <si>
+    <t>интернет</t>
+  </si>
+  <si>
+    <t>Выпускники, Трудоустройство</t>
+  </si>
+  <si>
+    <t>Сервер, сервера, серверы, виртуалка, интернет</t>
+  </si>
+  <si>
+    <t>сервер, виртуалка</t>
+  </si>
+  <si>
+    <t>сервер виртуалка цод</t>
+  </si>
+  <si>
+    <t>сервер виртуалка физтех идея</t>
+  </si>
+  <si>
+    <t>аудитории, Проектор, пульт, батарейки, презентации, презентационное оборудование, трибуна, электронная доска, интерактивная доска, презентационное оборудование, стилус</t>
+  </si>
+  <si>
+    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, презентации, презентационное оборудование трибуна, электронная доска, интерактивная доска, презентационное оборудование, стилус</t>
+  </si>
+  <si>
+    <t>Подключение аудиторий, аудитории, Проектор, пульт, батарейки, трибуна, презентации, презентационное оборудование, Видеоконференции, вкс</t>
+  </si>
+  <si>
+    <t>пропуск, ЭКД, общежитие, проход</t>
+  </si>
+  <si>
+    <t>Пропуск, Общежитие, ЭКД, проход</t>
+  </si>
+  <si>
+    <t>пропуск, ЭКД, общежитие, проход, выпускники, выпускник</t>
+  </si>
+  <si>
+    <t>дубликат, пропуск, ЭКД, общежитие, проход</t>
+  </si>
+  <si>
+    <t>Охрана труда</t>
+  </si>
+  <si>
+    <t>#инструктаж #охрана труда #образец #шаблон #бланк #должностные инструкции  #ди #повышение квалификации  #обучение  #образование отпуск  #график #расчетный листок #зарплата #начисления  #день рождения  #дни рождения  #именинники #командировка  #командирование #музей  #музей МФТИ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,14 +790,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1176,7 +1143,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1193,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1224,10 +1191,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1241,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1258,7 +1225,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1275,7 +1242,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1309,24 +1276,24 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1340,10 +1307,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1352,52 +1319,52 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>199</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>199</v>
@@ -1412,12 +1379,12 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
         <v>199</v>
@@ -1432,15 +1399,15 @@
         <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1452,15 +1419,15 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1472,15 +1439,15 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1492,15 +1459,15 @@
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1512,15 +1479,15 @@
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1532,16 +1499,16 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
-        <v>36</v>
-      </c>
       <c r="C22">
         <v>4</v>
       </c>
@@ -1552,15 +1519,15 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1572,15 +1539,15 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1594,70 +1561,70 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
         <v>38</v>
-      </c>
-      <c r="B25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
         <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
         <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>210</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1674,10 +1641,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1689,15 +1656,15 @@
         <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1709,15 +1676,15 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -1729,15 +1696,15 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -1749,15 +1716,15 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1769,15 +1736,15 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -1789,15 +1756,15 @@
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1814,10 +1781,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1829,15 +1796,15 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1854,10 +1821,10 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
         <v>59</v>
-      </c>
-      <c r="B38" t="s">
-        <v>60</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1869,15 +1836,15 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1894,10 +1861,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1911,10 +1878,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -1923,15 +1890,15 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -1940,15 +1907,15 @@
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1960,15 +1927,15 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <v>7</v>
@@ -1980,15 +1947,15 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -2000,15 +1967,15 @@
         <v>3</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -2020,15 +1987,15 @@
         <v>4</v>
       </c>
       <c r="F46" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C47">
         <v>7</v>
@@ -2040,15 +2007,15 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>7</v>
@@ -2060,15 +2027,15 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C49">
         <v>7</v>
@@ -2080,15 +2047,15 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C50">
         <v>7</v>
@@ -2100,15 +2067,15 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C51">
         <v>7</v>
@@ -2125,10 +2092,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -2137,15 +2104,15 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -2159,10 +2126,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>177</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -2171,15 +2138,15 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C55">
         <v>8</v>
@@ -2193,10 +2160,10 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C56">
         <v>8</v>
@@ -2210,10 +2177,10 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -2222,15 +2189,15 @@
         <v>6</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>226</v>
+        <v>179</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -2239,15 +2206,15 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
       <c r="C59">
         <v>9</v>
@@ -2256,15 +2223,15 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="C60">
         <v>10</v>
@@ -2273,15 +2240,15 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="C61">
         <v>10</v>
@@ -2290,15 +2257,15 @@
         <v>2</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C62">
         <v>10</v>
@@ -2307,15 +2274,15 @@
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C63">
         <v>10</v>
@@ -2324,15 +2291,15 @@
         <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C64">
         <v>10</v>
@@ -2341,15 +2308,15 @@
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C65">
         <v>10</v>
@@ -2358,15 +2325,15 @@
         <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C66">
         <v>10</v>
@@ -2375,15 +2342,15 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>124</v>
+        <v>222</v>
       </c>
       <c r="C67">
         <v>11</v>
@@ -2392,15 +2359,15 @@
         <v>1</v>
       </c>
       <c r="F67" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>223</v>
       </c>
       <c r="C68">
         <v>11</v>
@@ -2409,15 +2376,15 @@
         <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C69">
         <v>11</v>
@@ -2426,15 +2393,15 @@
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>132</v>
+        <v>225</v>
       </c>
       <c r="C70">
         <v>11</v>
@@ -2443,15 +2410,15 @@
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B71" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C71">
         <v>7</v>
@@ -2460,258 +2427,258 @@
         <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>-1</v>
-      </c>
-      <c r="F72" t="s">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73">
-        <v>-1</v>
-      </c>
-      <c r="F73" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C74">
         <v>4</v>
       </c>
       <c r="D74">
-        <v>-1</v>
-      </c>
-      <c r="F74" t="s">
-        <v>135</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
       <c r="C75">
         <v>6</v>
       </c>
       <c r="D75">
-        <v>-1</v>
-      </c>
-      <c r="F75" t="s">
-        <v>135</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B76" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C76">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D76">
-        <v>-1</v>
-      </c>
-      <c r="F76" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C77">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D77">
-        <v>-1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D78">
-        <v>-1</v>
-      </c>
-      <c r="F78" t="s">
-        <v>135</v>
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B79" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C79">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79">
-        <v>-1</v>
-      </c>
-      <c r="F79" t="s">
-        <v>135</v>
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B80" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" t="s">
-        <v>155</v>
+        <v>143</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D81">
         <v>2</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" t="s">
-        <v>157</v>
+        <v>144</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" t="s">
-        <v>47</v>
+        <v>145</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C83">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
         <v>6</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>161</v>
-      </c>
-      <c r="B85" t="s">
-        <v>162</v>
+        <v>148</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C85">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
         <v>7</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>163</v>
-      </c>
-      <c r="B86" t="s">
-        <v>230</v>
+        <v>149</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C86">
         <v>12</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" t="s">
-        <v>164</v>
+      <c r="A87" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C87">
         <v>12</v>
       </c>
       <c r="D87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -2719,16 +2686,16 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="C88">
         <v>12</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -2736,16 +2703,16 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="C89">
         <v>12</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -2753,16 +2720,16 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="C90">
         <v>12</v>
       </c>
       <c r="D90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E90">
         <v>4</v>
@@ -2770,16 +2737,16 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>169</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>234</v>
+        <v>156</v>
+      </c>
+      <c r="B91" t="s">
+        <v>157</v>
       </c>
       <c r="C91">
         <v>12</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>5</v>
@@ -2787,16 +2754,16 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>170</v>
-      </c>
-      <c r="B92" t="s">
-        <v>171</v>
+        <v>158</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="C92">
         <v>12</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E92">
         <v>6</v>
@@ -2804,16 +2771,16 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
       <c r="C93">
         <v>12</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>7</v>
@@ -2821,61 +2788,55 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>236</v>
+        <v>192</v>
       </c>
       <c r="C94">
         <v>12</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E94">
         <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="2" t="s">
-        <v>174</v>
+      <c r="A95" t="s">
+        <v>139</v>
       </c>
       <c r="B95" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C95">
         <v>12</v>
       </c>
       <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>176</v>
-      </c>
-      <c r="B96" t="s">
-        <v>177</v>
+        <v>162</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>227</v>
       </c>
       <c r="C96">
         <v>12</v>
       </c>
       <c r="D96">
-        <v>3</v>
-      </c>
-      <c r="E96">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>178</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>237</v>
+        <v>163</v>
+      </c>
+      <c r="B97" t="s">
+        <v>164</v>
       </c>
       <c r="C97">
         <v>12</v>
@@ -2883,151 +2844,21 @@
       <c r="D97">
         <v>3</v>
       </c>
-      <c r="E97">
-        <v>3</v>
-      </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="C98">
         <v>12</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
-        <v>180</v>
-      </c>
-      <c r="B99" t="s">
-        <v>181</v>
-      </c>
-      <c r="C99">
-        <v>12</v>
-      </c>
-      <c r="D99">
-        <v>3</v>
-      </c>
-      <c r="E99">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
-      <c r="A100" t="s">
-        <v>182</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C100">
-        <v>12</v>
-      </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>183</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C101">
-        <v>12</v>
-      </c>
-      <c r="D101">
-        <v>3</v>
-      </c>
-      <c r="E101">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" t="s">
-        <v>184</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C102">
-        <v>12</v>
-      </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-      <c r="E102">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" t="s">
-        <v>163</v>
-      </c>
-      <c r="B103" t="s">
-        <v>185</v>
-      </c>
-      <c r="C103">
-        <v>12</v>
-      </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" t="s">
-        <v>186</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C104">
-        <v>12</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" t="s">
-        <v>188</v>
-      </c>
-      <c r="B105" t="s">
-        <v>189</v>
-      </c>
-      <c r="C105">
-        <v>12</v>
-      </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" t="s">
-        <v>163</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C106">
-        <v>12</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
         <v>2</v>
       </c>
     </row>

--- a/kw/data/keywords.xlsx
+++ b/kw/data/keywords.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxxx\VSprojects\bots\mipt_uit\kw\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85180C5E-9FD1-4331-9912-3CEA518620C0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1056CA4-AA69-4639-A7D5-82212C23142B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="224">
   <si>
     <t>name</t>
   </si>
@@ -299,12 +299,6 @@
   </si>
   <si>
     <t>:left_arrow_curving_right:</t>
-  </si>
-  <si>
-    <t>Вычислительные ресурсы ЦОД</t>
-  </si>
-  <si>
-    <t>Вычислительные ресурсы ЦОД для участников «Физтех.Идея»</t>
   </si>
   <si>
     <t>Техподдержка центра обработки данных (ЦОД)</t>
@@ -679,12 +673,6 @@
   </si>
   <si>
     <t>сервер, виртуалка</t>
-  </si>
-  <si>
-    <t>сервер виртуалка цод</t>
-  </si>
-  <si>
-    <t>сервер виртуалка физтех идея</t>
   </si>
   <si>
     <t>аудитории, Проектор, пульт, батарейки, презентации, презентационное оборудование, трибуна, электронная доска, интерактивная доска, презентационное оборудование, стилус</t>
@@ -1102,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1143,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1160,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1191,10 +1179,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1208,7 +1196,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1225,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1242,7 +1230,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1259,7 +1247,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1276,7 +1264,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1293,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -1310,7 +1298,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1327,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1347,7 +1335,7 @@
         <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1367,7 +1355,7 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1384,10 +1372,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1404,10 +1392,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1424,10 +1412,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1444,10 +1432,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1467,7 +1455,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1544,10 +1532,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1564,7 +1552,7 @@
         <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1584,7 +1572,7 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1604,7 +1592,7 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -1624,7 +1612,7 @@
         <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1664,7 +1652,7 @@
         <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -1684,7 +1672,7 @@
         <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -1704,7 +1692,7 @@
         <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -1724,7 +1712,7 @@
         <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -1744,7 +1732,7 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -1764,7 +1752,7 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1784,7 +1772,7 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1804,7 +1792,7 @@
         <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1844,7 +1832,7 @@
         <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1864,7 +1852,7 @@
         <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1915,7 +1903,7 @@
         <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C43">
         <v>7</v>
@@ -1955,7 +1943,7 @@
         <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C45">
         <v>7</v>
@@ -2095,7 +2083,7 @@
         <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -2112,7 +2100,7 @@
         <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C53">
         <v>8</v>
@@ -2129,7 +2117,7 @@
         <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C54">
         <v>8</v>
@@ -2146,397 +2134,397 @@
         <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="C55">
         <v>8</v>
       </c>
       <c r="D55">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C56">
         <v>8</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
         <v>178</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D58">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="C59">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="C60">
         <v>10</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="C61">
         <v>10</v>
       </c>
       <c r="D61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C62">
         <v>10</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C63">
         <v>10</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="C64">
         <v>10</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>218</v>
       </c>
       <c r="C65">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C66">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C67">
         <v>11</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C68">
         <v>11</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>120</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>123</v>
       </c>
       <c r="C69">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>127</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="F70" t="s">
-        <v>56</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B71" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D71">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C72">
         <v>4</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>46</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="C76">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C77">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>2</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C78">
         <v>12</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" t="s">
         <v>141</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="C79">
         <v>12</v>
@@ -2545,14 +2533,14 @@
         <v>2</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>142</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C80">
@@ -2562,7 +2550,7 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2579,15 +2567,15 @@
         <v>2</v>
       </c>
       <c r="E81">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>184</v>
+      <c r="B82" t="s">
+        <v>145</v>
       </c>
       <c r="C82">
         <v>12</v>
@@ -2596,15 +2584,15 @@
         <v>2</v>
       </c>
       <c r="E82">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C83">
         <v>12</v>
@@ -2613,15 +2601,15 @@
         <v>2</v>
       </c>
       <c r="E83">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" t="s">
         <v>147</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="C84">
         <v>12</v>
@@ -2630,49 +2618,49 @@
         <v>2</v>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" t="s">
+      <c r="A85" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>186</v>
+      <c r="B85" t="s">
+        <v>149</v>
       </c>
       <c r="C85">
         <v>12</v>
       </c>
       <c r="D85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>149</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>187</v>
+        <v>150</v>
+      </c>
+      <c r="B86" t="s">
+        <v>151</v>
       </c>
       <c r="C86">
         <v>12</v>
       </c>
       <c r="D86">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E86">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" t="s">
-        <v>151</v>
+      <c r="A87" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="C87">
         <v>12</v>
@@ -2681,15 +2669,15 @@
         <v>3</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>152</v>
-      </c>
-      <c r="B88" t="s">
         <v>153</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C88">
         <v>12</v>
@@ -2698,15 +2686,15 @@
         <v>3</v>
       </c>
       <c r="E88">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>154</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>188</v>
+      <c r="B89" t="s">
+        <v>155</v>
       </c>
       <c r="C89">
         <v>12</v>
@@ -2715,15 +2703,15 @@
         <v>3</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C90">
         <v>12</v>
@@ -2732,15 +2720,15 @@
         <v>3</v>
       </c>
       <c r="E90">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>156</v>
-      </c>
-      <c r="B91" t="s">
         <v>157</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="C91">
         <v>12</v>
@@ -2749,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="E91">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2766,99 +2754,65 @@
         <v>3</v>
       </c>
       <c r="E92">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B93" t="s">
         <v>159</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="C93">
         <v>12</v>
       </c>
       <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>160</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>192</v>
+      <c r="B94" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="C94">
         <v>12</v>
       </c>
       <c r="D94">
-        <v>3</v>
-      </c>
-      <c r="E94">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C95">
         <v>12</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>162</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>227</v>
+        <v>137</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C96">
         <v>12</v>
       </c>
       <c r="D96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="A97" t="s">
-        <v>163</v>
-      </c>
-      <c r="B97" t="s">
-        <v>164</v>
-      </c>
-      <c r="C97">
-        <v>12</v>
-      </c>
-      <c r="D97">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
-      <c r="A98" t="s">
-        <v>139</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C98">
-        <v>12</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="E96">
         <v>2</v>
       </c>
     </row>
